--- a/Assets/GameMain/DataTables/Data/BuildingConfigTables.xlsx
+++ b/Assets/GameMain/DataTables/Data/BuildingConfigTables.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120634D5-3567-4839-9C62-CD2DE02E454A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017430AC-F1BD-49F3-BADF-BB58213BA87C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12285" yWindow="4470" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BaseConf" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="101">
   <si>
     <t>##var</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -393,6 +393,18 @@
   </si>
   <si>
     <t>house</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑键</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -843,80 +855,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="30.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.875" customWidth="1"/>
+    <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="30.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="40.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="F2" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="11" t="s">
         <v>55</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>63</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>63</v>
@@ -928,63 +944,69 @@
         <v>63</v>
       </c>
       <c r="K2" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="L2" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="D3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="E3" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="F3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="G3" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="H3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="I3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="J3" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="K3" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="L3" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="13">
-        <v>100</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>61</v>
+      <c r="G4" s="13">
+        <v>100</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>61</v>
@@ -996,61 +1018,67 @@
         <v>61</v>
       </c>
       <c r="K4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="13">
-        <v>100</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="13">
+        <v>100</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="I5" s="2" t="s">
         <v>61</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="13">
-        <v>100</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>61</v>
+      <c r="G6" s="13">
+        <v>100</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>61</v>
@@ -1061,29 +1089,32 @@
       <c r="J6" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="13">
-        <v>100</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>61</v>
+      <c r="G7" s="13">
+        <v>100</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>61</v>
@@ -1094,29 +1125,32 @@
       <c r="J7" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2">
+        <v>5</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="13">
-        <v>100</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>61</v>
+      <c r="G8" s="13">
+        <v>100</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>61</v>
@@ -1127,29 +1161,32 @@
       <c r="J8" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L8" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2">
+        <v>6</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="13">
-        <v>100</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>61</v>
+      <c r="G9" s="13">
+        <v>100</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>61</v>
@@ -1160,29 +1197,32 @@
       <c r="J9" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L9" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2">
+        <v>7</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="13">
-        <v>100</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>61</v>
+      <c r="G10" s="13">
+        <v>100</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>61</v>
@@ -1193,29 +1233,32 @@
       <c r="J10" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L10" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="2">
+        <v>8</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="13">
-        <v>100</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>61</v>
+      <c r="G11" s="13">
+        <v>100</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>61</v>
@@ -1226,29 +1269,32 @@
       <c r="J11" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L11" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="2">
+        <v>9</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="13">
-        <v>100</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>61</v>
+      <c r="G12" s="13">
+        <v>100</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>61</v>
@@ -1259,29 +1305,32 @@
       <c r="J12" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L12" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="2">
+        <v>10</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="13">
-        <v>100</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>61</v>
+      <c r="G13" s="13">
+        <v>100</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>61</v>
@@ -1292,29 +1341,32 @@
       <c r="J13" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L13" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="2">
+        <v>11</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="13">
-        <v>100</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>61</v>
+      <c r="G14" s="13">
+        <v>100</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>61</v>
@@ -1325,29 +1377,32 @@
       <c r="J14" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L14" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2">
+        <v>12</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="13">
-        <v>100</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>61</v>
+      <c r="G15" s="13">
+        <v>100</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>61</v>
@@ -1358,29 +1413,32 @@
       <c r="J15" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="2">
+        <v>13</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="13">
-        <v>100</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>61</v>
+      <c r="G16" s="13">
+        <v>100</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>61</v>
@@ -1391,29 +1449,32 @@
       <c r="J16" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2">
+        <v>14</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="13">
-        <v>100</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>61</v>
+      <c r="G17" s="13">
+        <v>100</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>61</v>
@@ -1424,29 +1485,32 @@
       <c r="J17" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L17" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2">
+        <v>15</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="13">
-        <v>100</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>61</v>
+      <c r="G18" s="13">
+        <v>100</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>61</v>
@@ -1457,29 +1521,32 @@
       <c r="J18" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K18" s="9" t="s">
+      <c r="K18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L18" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2">
+        <v>16</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="13">
-        <v>100</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>61</v>
+      <c r="G19" s="13">
+        <v>100</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>61</v>
@@ -1490,29 +1557,32 @@
       <c r="J19" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K19" s="6" t="s">
+      <c r="K19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L19" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="B20" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="2">
+        <v>17</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="E20" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="F20" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="13">
-        <v>100</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>61</v>
+      <c r="G20" s="13">
+        <v>100</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>61</v>
@@ -1523,29 +1593,32 @@
       <c r="J20" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="K20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L20" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="2">
+        <v>18</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="E21" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="F21" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="13">
-        <v>100</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>61</v>
+      <c r="G21" s="13">
+        <v>100</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>61</v>
@@ -1556,29 +1629,32 @@
       <c r="J21" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="K21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L21" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
       <c r="B22" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="2">
+        <v>19</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="E22" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="F22" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F22" s="13">
-        <v>100</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>61</v>
+      <c r="G22" s="13">
+        <v>100</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>61</v>
@@ -1589,29 +1665,32 @@
       <c r="J22" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="K22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L22" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
       <c r="B23" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="2">
+        <v>20</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="E23" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="F23" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="13">
-        <v>100</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>61</v>
+      <c r="G23" s="13">
+        <v>100</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>61</v>
@@ -1622,7 +1701,10 @@
       <c r="J23" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="K23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L23" s="1" t="s">
         <v>44</v>
       </c>
     </row>

--- a/Assets/GameMain/DataTables/Data/BuildingConfigTables.xlsx
+++ b/Assets/GameMain/DataTables/Data/BuildingConfigTables.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017430AC-F1BD-49F3-BADF-BB58213BA87C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841AB822-3FFD-44BC-BE94-5DA93A8CAB6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12285" yWindow="4470" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41172" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BaseConf" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="102">
   <si>
     <t>##var</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -260,10 +260,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Money,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Function|Product|Storage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -284,14 +280,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建筑ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>centerTower</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -400,11 +388,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>建筑键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuildingRes,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuildingRes,6</t>
+  </si>
+  <si>
+    <t>BuildingRes,5,Seedling,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuildingRes,1,Seedling,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuildingRes,6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -855,84 +858,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.875" customWidth="1"/>
-    <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="30.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="30.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="40.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>70</v>
+        <v>95</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>3</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>99</v>
+      <c r="C2" s="11" t="s">
+        <v>4</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>63</v>
@@ -944,70 +943,62 @@
         <v>63</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="L2" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>71</v>
+        <v>96</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>5</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="J3" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="K3" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="D4" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="E4" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="13">
-        <v>100</v>
-      </c>
+      <c r="F4" s="13">
+        <v>100</v>
+      </c>
+      <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
         <v>61</v>
       </c>
@@ -1018,34 +1009,31 @@
         <v>61</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L4" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D5" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="E5" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="13">
-        <v>100</v>
+      <c r="F5" s="13">
+        <v>100</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>61</v>
@@ -1053,32 +1041,29 @@
       <c r="J5" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="2">
-        <v>3</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="13">
-        <v>100</v>
+      <c r="F6" s="13">
+        <v>100</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>61</v>
@@ -1089,32 +1074,29 @@
       <c r="J6" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="2">
-        <v>4</v>
-      </c>
-      <c r="D7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D7" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="E7" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="13">
-        <v>100</v>
+      <c r="F7" s="13">
+        <v>100</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>61</v>
@@ -1125,32 +1107,29 @@
       <c r="J7" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="2">
-        <v>5</v>
-      </c>
-      <c r="D8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="D8" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="E8" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="13">
-        <v>100</v>
+      <c r="F8" s="13">
+        <v>100</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>61</v>
@@ -1161,32 +1140,29 @@
       <c r="J8" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L8" s="4" t="s">
+      <c r="K8" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" s="2">
-        <v>6</v>
-      </c>
-      <c r="D9" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="D9" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="E9" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="13">
-        <v>100</v>
+      <c r="F9" s="13">
+        <v>100</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>61</v>
@@ -1197,32 +1173,29 @@
       <c r="J9" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L9" s="4" t="s">
+      <c r="K9" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" s="2">
-        <v>7</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="13">
-        <v>100</v>
+      <c r="F10" s="13">
+        <v>100</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>61</v>
@@ -1233,32 +1206,29 @@
       <c r="J10" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L10" s="4" t="s">
+      <c r="K10" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="2">
-        <v>8</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="13">
-        <v>100</v>
+      <c r="F11" s="13">
+        <v>100</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>61</v>
@@ -1269,32 +1239,29 @@
       <c r="J11" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L11" s="4" t="s">
+      <c r="K11" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" s="2">
-        <v>9</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>75</v>
+        <v>83</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="13">
-        <v>100</v>
+      <c r="F12" s="13">
+        <v>100</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>61</v>
@@ -1305,32 +1272,29 @@
       <c r="J12" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L12" s="4" t="s">
+      <c r="K12" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C13" s="2">
-        <v>10</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>76</v>
+        <v>84</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="13">
-        <v>100</v>
+      <c r="F13" s="13">
+        <v>100</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>61</v>
@@ -1341,32 +1305,29 @@
       <c r="J13" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L13" s="4" t="s">
+      <c r="K13" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C14" s="2">
-        <v>11</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>77</v>
+        <v>85</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="13">
-        <v>100</v>
+      <c r="F14" s="13">
+        <v>100</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>61</v>
@@ -1377,31 +1338,28 @@
       <c r="J14" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K14" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L14" s="4" t="s">
+      <c r="K14" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C15" s="2">
-        <v>12</v>
-      </c>
-      <c r="D15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="D15" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="E15" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="13">
+      <c r="F15" s="13">
+        <v>100</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>100</v>
       </c>
       <c r="H15" s="2" t="s">
@@ -1413,32 +1371,29 @@
       <c r="J15" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K15" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L15" t="s">
+      <c r="K15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C16" s="2">
-        <v>13</v>
+        <v>86</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="13">
-        <v>100</v>
+      <c r="F16" s="13">
+        <v>100</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>61</v>
@@ -1449,32 +1404,29 @@
       <c r="J16" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L16" t="s">
+      <c r="K16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C17" s="2">
-        <v>14</v>
-      </c>
-      <c r="D17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="D17" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="E17" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="13">
-        <v>100</v>
+      <c r="F17" s="13">
+        <v>100</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>61</v>
@@ -1485,32 +1437,29 @@
       <c r="J17" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L17" t="s">
+      <c r="K17" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C18" s="2">
-        <v>15</v>
-      </c>
-      <c r="D18" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="D18" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="E18" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="13">
-        <v>100</v>
+      <c r="F18" s="13">
+        <v>100</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>61</v>
@@ -1521,32 +1470,29 @@
       <c r="J18" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L18" s="9" t="s">
+      <c r="K18" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C19" s="2">
-        <v>16</v>
-      </c>
-      <c r="D19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="D19" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="E19" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="13">
-        <v>100</v>
+      <c r="F19" s="13">
+        <v>100</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>61</v>
@@ -1557,32 +1503,29 @@
       <c r="J19" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K19" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L19" s="6" t="s">
+      <c r="K19" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="B20" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C20" s="2">
-        <v>17</v>
-      </c>
-      <c r="D20" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>13</v>
       </c>
+      <c r="D20" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="E20" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G20" s="13">
-        <v>100</v>
+      <c r="F20" s="13">
+        <v>100</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>61</v>
@@ -1593,32 +1536,29 @@
       <c r="J20" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K20" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L20" s="1" t="s">
+      <c r="K20" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" s="2">
-        <v>18</v>
-      </c>
-      <c r="D21" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>14</v>
       </c>
+      <c r="D21" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="E21" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="13">
-        <v>100</v>
+      <c r="F21" s="13">
+        <v>100</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>61</v>
@@ -1629,32 +1569,29 @@
       <c r="J21" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K21" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L21" s="1" t="s">
+      <c r="K21" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
       <c r="B22" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C22" s="2">
-        <v>19</v>
-      </c>
-      <c r="D22" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>15</v>
       </c>
+      <c r="D22" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="E22" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="13">
-        <v>100</v>
+      <c r="F22" s="13">
+        <v>100</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>61</v>
@@ -1665,32 +1602,29 @@
       <c r="J22" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K22" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L22" s="1" t="s">
+      <c r="K22" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
       <c r="B23" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C23" s="2">
-        <v>20</v>
-      </c>
-      <c r="D23" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="D23" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="E23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G23" s="13">
-        <v>100</v>
+      <c r="F23" s="13">
+        <v>100</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>61</v>
@@ -1701,10 +1635,7 @@
       <c r="J23" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K23" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L23" s="1" t="s">
+      <c r="K23" s="1" t="s">
         <v>44</v>
       </c>
     </row>
